--- a/network-April-14-2020/no-impute/net.xlsx
+++ b/network-April-14-2020/no-impute/net.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="8923"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="8914"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="151">
   <si>
     <t>ST1</t>
   </si>
@@ -524,13 +524,34 @@
   </si>
   <si>
     <t>NC</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,8 +573,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,6 +598,17 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -580,19 +619,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -885,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1101,6 +1144,9 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -1115,14 +1161,20 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB4" s="1">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="4">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
       <c r="AD5" s="2">
         <v>3</v>
       </c>
@@ -1134,38 +1186,50 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
       <c r="S6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="AC7">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="X8">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="X8" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="J9">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.4">
@@ -1376,107 +1440,107 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="12" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" t="s">
-        <v>130</v>
-      </c>
-      <c r="K12" t="s">
-        <v>129</v>
-      </c>
-      <c r="L12" t="s">
-        <v>129</v>
-      </c>
-      <c r="M12" t="s">
-        <v>131</v>
-      </c>
-      <c r="N12" t="s">
-        <v>130</v>
-      </c>
-      <c r="O12" t="s">
-        <v>128</v>
-      </c>
-      <c r="P12" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>128</v>
-      </c>
-      <c r="R12" t="s">
-        <v>129</v>
-      </c>
-      <c r="S12" t="s">
-        <v>128</v>
-      </c>
-      <c r="T12" t="s">
-        <v>131</v>
-      </c>
-      <c r="U12" t="s">
-        <v>129</v>
-      </c>
-      <c r="V12" t="s">
-        <v>131</v>
-      </c>
-      <c r="W12" t="s">
-        <v>131</v>
-      </c>
-      <c r="X12" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="C12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH12" s="3" t="s">
         <v>130</v>
       </c>
     </row>
